--- a/PlaceMapADM/Excel/Temp/template_statistic.xlsx
+++ b/PlaceMapADM/Excel/Temp/template_statistic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chinhnb\PlaceMapSolution\PlaceMapADM\Excel\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHINHNB\PlaceMapSolution\PlaceMapADM\Excel\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,9 +37,6 @@
     <t>&lt;id&gt;</t>
   </si>
   <si>
-    <t>Stt</t>
-  </si>
-  <si>
     <t>&lt;username&gt;</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Số KH checkin đủ 3/tháng</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,22 +451,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PlaceMapADM/Excel/Temp/template_statistic.xlsx
+++ b/PlaceMapADM/Excel/Temp/template_statistic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHINHNB\PlaceMapSolution\PlaceMapADM\Excel\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chinhnb\PlaceMapSolution\PlaceMapADM\Excel\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,10 +61,10 @@
     <t>Tổng số checkin/tháng</t>
   </si>
   <si>
-    <t>Số KH checkin đủ 3/tháng</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Số KH checkin đủ/tháng</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
